--- a/Fama-macBeth data/Reg_factors.xlsx
+++ b/Fama-macBeth data/Reg_factors.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Escritorio\Memoria\Memoria_LA\Fama-macBeth data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB08F8-1509-4AB7-ABE6-9A41D96C2210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C993C-4BBA-4D5B-8CDF-14D3D98DF632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -417,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Fama-macBeth data/Reg_factors.xlsx
+++ b/Fama-macBeth data/Reg_factors.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Escritorio\Memoria\Memoria_LA\Fama-macBeth data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C993C-4BBA-4D5B-8CDF-14D3D98DF632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,21 +98,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +142,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -190,7 +176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,10 +210,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,19 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -424,2930 +403,2930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>43479</v>
       </c>
       <c r="B2">
-        <v>-1.0835191989440669E-2</v>
+        <v>-0.01083519198944067</v>
       </c>
       <c r="C2">
-        <v>-1.251917526438262E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01251917526438262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43486</v>
       </c>
       <c r="B3">
-        <v>-9.7139676994666101E-3</v>
+        <v>-0.00971396769946661</v>
       </c>
       <c r="C3">
-        <v>-1.413281266661803E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01413281266661803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>43493</v>
       </c>
       <c r="B4">
-        <v>1.6711607444347121E-2</v>
+        <v>0.01671160744434712</v>
       </c>
       <c r="C4">
-        <v>-4.8171177005566827E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.04817117700556683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>43500</v>
       </c>
       <c r="B5">
-        <v>-9.4850442956292969E-3</v>
+        <v>-0.009485044295629297</v>
       </c>
       <c r="C5">
-        <v>5.9357701320113421E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05935770132011342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43507</v>
       </c>
       <c r="B6">
-        <v>9.3022980219286937E-3</v>
+        <v>0.009302298021928694</v>
       </c>
       <c r="C6">
-        <v>-1.0140091820708739E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01014009182070874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>43514</v>
       </c>
       <c r="B7">
-        <v>-5.0187836321536452E-3</v>
+        <v>-0.005018783632153645</v>
       </c>
       <c r="C7">
-        <v>0.12292743784488989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1229274378448899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43521</v>
       </c>
       <c r="B8">
-        <v>-2.140740192436633E-2</v>
+        <v>-0.02140740192436633</v>
       </c>
       <c r="C8">
-        <v>-3.9123517262034002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.039123517262034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43528</v>
       </c>
       <c r="B9">
-        <v>-7.1517974063238648E-3</v>
+        <v>-0.007151797406323865</v>
       </c>
       <c r="C9">
-        <v>1.1647278679975059E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01164727867997506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43535</v>
       </c>
       <c r="B10">
-        <v>7.4079399082326892E-3</v>
+        <v>0.007407939908232689</v>
       </c>
       <c r="C10">
-        <v>3.2894751410618588E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03289475141061859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43542</v>
       </c>
       <c r="B11">
-        <v>-1.101538591175889E-2</v>
+        <v>-0.01101538591175889</v>
       </c>
       <c r="C11">
-        <v>1.5829849926896958E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01582984992689696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43549</v>
       </c>
       <c r="B12">
-        <v>4.7014306990942924E-3</v>
+        <v>0.004701430699094292</v>
       </c>
       <c r="C12">
-        <v>2.3974238604695271E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02397423860469527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43556</v>
       </c>
       <c r="B13">
-        <v>-3.6784259511728451E-2</v>
+        <v>-0.03678425951172845</v>
       </c>
       <c r="C13">
-        <v>0.22782532513723641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.2278253251372364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43563</v>
       </c>
       <c r="B14">
-        <v>3.9337195146683337E-2</v>
+        <v>0.03933719514668334</v>
       </c>
       <c r="C14">
-        <v>-2.3689115084277509E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02368911508427751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43570</v>
       </c>
       <c r="B15">
-        <v>-9.0460360373094094E-3</v>
+        <v>-0.009046036037309409</v>
       </c>
       <c r="C15">
-        <v>4.2593136845850532E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04259313684585053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43577</v>
       </c>
       <c r="B16">
-        <v>7.9566542447936806E-3</v>
+        <v>0.007956654244793681</v>
       </c>
       <c r="C16">
-        <v>-5.7496909817462923E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05749690981746292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43584</v>
       </c>
       <c r="B17">
-        <v>1.7543043274325289E-2</v>
+        <v>0.01754304327432529</v>
       </c>
       <c r="C17">
-        <v>9.0207195718907007E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09020719571890701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43591</v>
       </c>
       <c r="B18">
-        <v>1.3238973052899609E-2</v>
+        <v>0.01323897305289961</v>
       </c>
       <c r="C18">
-        <v>4.158188521423245E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04158188521423245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43598</v>
       </c>
       <c r="B19">
-        <v>5.0330018025950517E-2</v>
+        <v>0.05033001802595052</v>
       </c>
       <c r="C19">
         <v>0.1727481137869751</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43605</v>
       </c>
       <c r="B20">
-        <v>-4.1122758756774961E-3</v>
+        <v>-0.004112275875677496</v>
       </c>
       <c r="C20">
         <v>0.1248564889841088</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>43612</v>
       </c>
       <c r="B21">
-        <v>-1.6140744076021261E-2</v>
+        <v>-0.01614074407602126</v>
       </c>
       <c r="C21">
-        <v>6.624136733703323E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06624136733703323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43619</v>
       </c>
       <c r="B22">
-        <v>-8.1726183842747921E-3</v>
+        <v>-0.008172618384274792</v>
       </c>
       <c r="C22">
-        <v>-5.9589323623641548E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05958932362364155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43626</v>
       </c>
       <c r="B23">
-        <v>-1.852499099929154E-2</v>
+        <v>-0.01852499099929154</v>
       </c>
       <c r="C23">
-        <v>4.7485759537539307E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04748575953753931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43633</v>
       </c>
       <c r="B24">
-        <v>2.6944466046180691E-2</v>
+        <v>0.02694446604618069</v>
       </c>
       <c r="C24">
         <v>0.1386229975109661</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43640</v>
       </c>
       <c r="B25">
-        <v>-1.778622873662378E-3</v>
+        <v>-0.001778622873662378</v>
       </c>
       <c r="C25">
-        <v>0.14163182964955839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1416318296495584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>43647</v>
       </c>
       <c r="B26">
-        <v>-1.913047169434965E-2</v>
+        <v>-0.01913047169434965</v>
       </c>
       <c r="C26">
-        <v>-8.694350021667907E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.08694350021667907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43654</v>
       </c>
       <c r="B27">
-        <v>4.5695374597987622E-2</v>
+        <v>0.04569537459798762</v>
       </c>
       <c r="C27">
-        <v>2.4112659297613529E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02411265929761353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43661</v>
       </c>
       <c r="B28">
-        <v>-1.4374172985783459E-2</v>
+        <v>-0.01437417298578346</v>
       </c>
       <c r="C28">
-        <v>-0.12332109710545359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1233210971054536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43668</v>
       </c>
       <c r="B29">
-        <v>-1.318981298588417E-2</v>
+        <v>-0.01318981298588417</v>
       </c>
       <c r="C29">
-        <v>-4.4913551385613038E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.04491355138561304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43675</v>
       </c>
       <c r="B30">
-        <v>-6.067401066216364E-3</v>
+        <v>-0.006067401066216364</v>
       </c>
       <c r="C30">
-        <v>3.0316006116628099E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0303160061166281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43682</v>
       </c>
       <c r="B31">
-        <v>2.8744593105098231E-2</v>
+        <v>0.02874459310509823</v>
       </c>
       <c r="C31">
-        <v>8.4518816085949799E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0845188160859498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>43689</v>
       </c>
       <c r="B32">
-        <v>-2.1822464100615729E-3</v>
+        <v>-0.002182246410061573</v>
       </c>
       <c r="C32">
-        <v>-0.11501814919007811</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1150181491900781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43696</v>
       </c>
       <c r="B33">
-        <v>2.3679260944864871E-2</v>
+        <v>0.02367926094486487</v>
       </c>
       <c r="C33">
-        <v>5.4554608090833234E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.005455460809083323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>43703</v>
       </c>
       <c r="B34">
-        <v>5.0589742365317412E-3</v>
+        <v>0.005058974236531741</v>
       </c>
       <c r="C34">
-        <v>-8.21088605385768E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.0821088605385768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>43710</v>
       </c>
       <c r="B35">
-        <v>2.1941573737338779E-2</v>
+        <v>0.02194157373733878</v>
       </c>
       <c r="C35">
-        <v>5.3044565784648563E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05304456578464856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43717</v>
       </c>
       <c r="B36">
-        <v>-1.111377914958441E-3</v>
+        <v>-0.001111377914958441</v>
       </c>
       <c r="C36">
-        <v>2.3348296750014259E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.002334829675001426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>43724</v>
       </c>
       <c r="B37">
-        <v>-5.3946160942012012E-3</v>
+        <v>-0.005394616094201201</v>
       </c>
       <c r="C37">
-        <v>2.2005265140454981E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02200526514045498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>43731</v>
       </c>
       <c r="B38">
-        <v>9.0769784235234467E-3</v>
+        <v>0.009076978423523447</v>
       </c>
       <c r="C38">
-        <v>-0.20624612120351529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.2062461212035153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>43738</v>
       </c>
       <c r="B39">
-        <v>-1.355500893819519E-2</v>
+        <v>-0.01355500893819519</v>
       </c>
       <c r="C39">
-        <v>1.881721632988809E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01881721632988809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>43745</v>
       </c>
       <c r="B40">
-        <v>-6.1359751246386068E-3</v>
+        <v>-0.006135975124638607</v>
       </c>
       <c r="C40">
-        <v>2.4586269120724591E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02458626912072459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43752</v>
       </c>
       <c r="B41">
-        <v>-1.6958868575180391E-2</v>
+        <v>-0.01695886857518039</v>
       </c>
       <c r="C41">
-        <v>-3.5935850214883103E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.0359358502148831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>43759</v>
       </c>
       <c r="B42">
-        <v>-1.6389925376053809E-2</v>
+        <v>-0.01638992537605381</v>
       </c>
       <c r="C42">
-        <v>7.5643463834020874E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07564346383402087</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43766</v>
       </c>
       <c r="B43">
-        <v>-2.0125225971649612E-2</v>
+        <v>-0.02012522597164961</v>
       </c>
       <c r="C43">
-        <v>6.118078815205541E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06118078815205541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43773</v>
       </c>
       <c r="B44">
-        <v>3.5492879727247822E-3</v>
+        <v>0.003549287972724782</v>
       </c>
       <c r="C44">
-        <v>-2.8507608172289811E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02850760817228981</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43780</v>
       </c>
       <c r="B45">
-        <v>-1.2501673123162201E-2</v>
+        <v>-0.0125016731231622</v>
       </c>
       <c r="C45">
-        <v>-3.9702172101026452E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03970217210102645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>43787</v>
       </c>
       <c r="B46">
-        <v>3.7460486104900501E-3</v>
+        <v>0.00374604861049005</v>
       </c>
       <c r="C46">
-        <v>-0.13977700393169909</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1397770039316991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>43794</v>
       </c>
       <c r="B47">
-        <v>8.2580956849230645E-4</v>
+        <v>0.0008258095684923064</v>
       </c>
       <c r="C47">
-        <v>4.0738307367571107E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04073830736757111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>43801</v>
       </c>
       <c r="B48">
-        <v>-4.8072355108111347E-3</v>
+        <v>-0.004807235510811135</v>
       </c>
       <c r="C48">
-        <v>-3.3476210691519848E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03347621069151985</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>43808</v>
       </c>
       <c r="B49">
-        <v>-8.903122049162453E-3</v>
+        <v>-0.008903122049162453</v>
       </c>
       <c r="C49">
-        <v>-2.757278687740106E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02757278687740106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>43815</v>
       </c>
       <c r="B50">
-        <v>4.1209094446872539E-4</v>
+        <v>0.0004120909444687254</v>
       </c>
       <c r="C50">
-        <v>-3.0644635371856691E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03064463537185669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>43822</v>
       </c>
       <c r="B51">
-        <v>1.1058575025957111E-2</v>
+        <v>0.01105857502595711</v>
       </c>
       <c r="C51">
-        <v>3.0473423235246599E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.00304734232352466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>43829</v>
       </c>
       <c r="B52">
-        <v>-6.07108959873054E-3</v>
+        <v>-0.00607108959873054</v>
       </c>
       <c r="C52">
-        <v>1.101686985775552E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01101686985775552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>43836</v>
       </c>
       <c r="B53">
-        <v>1.2393915961124959E-2</v>
+        <v>0.01239391596112496</v>
       </c>
       <c r="C53">
         <v>0.1030264015986448</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>43843</v>
       </c>
       <c r="B54">
-        <v>-1.056523634003525E-3</v>
+        <v>-0.001056523634003525</v>
       </c>
       <c r="C54">
-        <v>0.15019653066760361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1501965306676036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>43850</v>
       </c>
       <c r="B55">
-        <v>-1.0750966134538629E-2</v>
+        <v>-0.01075096613453863</v>
       </c>
       <c r="C55">
-        <v>-5.0137464547940318E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05013746454794032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>43857</v>
       </c>
       <c r="B56">
-        <v>-3.8478586638372148E-3</v>
+        <v>-0.003847858663837215</v>
       </c>
       <c r="C56">
         <v>0.1018959314725079</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>43864</v>
       </c>
       <c r="B57">
-        <v>-9.2542913384405182E-3</v>
+        <v>-0.009254291338440518</v>
       </c>
       <c r="C57">
-        <v>7.5287708580652479E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07528770858065248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>43871</v>
       </c>
       <c r="B58">
-        <v>-1.4311842012987901E-2</v>
+        <v>-0.0143118420129879</v>
       </c>
       <c r="C58">
         <v>0.1061998930383681</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>43878</v>
       </c>
       <c r="B59">
-        <v>6.9524061149853836E-3</v>
+        <v>0.006952406114985384</v>
       </c>
       <c r="C59">
-        <v>-8.9070424189488184E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.08907042418948818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>43885</v>
       </c>
       <c r="B60">
-        <v>1.344921320605552E-2</v>
+        <v>0.01344921320605552</v>
       </c>
       <c r="C60">
         <v>-0.1203420693623434</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>43892</v>
       </c>
       <c r="B61">
-        <v>-1.7029160967884111E-2</v>
+        <v>-0.01702916096788411</v>
       </c>
       <c r="C61">
-        <v>5.9820407406262488E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05982040740626249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>43899</v>
       </c>
       <c r="B62">
-        <v>-6.1470429787859422E-3</v>
+        <v>-0.006147042978785942</v>
       </c>
       <c r="C62">
-        <v>-0.41086641287358922</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.4108664128735892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>43906</v>
       </c>
       <c r="B63">
-        <v>6.4540860473241701E-3</v>
+        <v>0.00645408604732417</v>
       </c>
       <c r="C63">
         <v>0.1070681095282859</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>43913</v>
       </c>
       <c r="B64">
-        <v>2.1688263547190379E-2</v>
+        <v>0.02168826354719038</v>
       </c>
       <c r="C64">
-        <v>7.4409918333165015E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07440991833316501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>43920</v>
       </c>
       <c r="B65">
-        <v>4.9200300345929506E-3</v>
+        <v>0.004920030034592951</v>
       </c>
       <c r="C65">
-        <v>7.6406392183676619E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.007640639218367662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>43927</v>
       </c>
       <c r="B66">
-        <v>9.2744942011365288E-3</v>
+        <v>0.009274494201136529</v>
       </c>
       <c r="C66">
-        <v>4.0532908900084541E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04053290890008454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>43934</v>
       </c>
       <c r="B67">
-        <v>-5.1837721123924648E-3</v>
+        <v>-0.005183772112392465</v>
       </c>
       <c r="C67">
-        <v>3.5254463085669041E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03525446308566904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>43941</v>
       </c>
       <c r="B68">
-        <v>-1.1814871087085401E-2</v>
+        <v>-0.0118148710870854</v>
       </c>
       <c r="C68">
-        <v>6.7911868251802288E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06791186825180229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>43948</v>
       </c>
       <c r="B69">
-        <v>3.178634550741194E-3</v>
+        <v>0.003178634550741194</v>
       </c>
       <c r="C69">
-        <v>0.14245684439968739</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1424568443996874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>43955</v>
       </c>
       <c r="B70">
-        <v>-1.593438453831009E-3</v>
+        <v>-0.001593438453831009</v>
       </c>
       <c r="C70">
         <v>0.1009451843435594</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>43962</v>
       </c>
       <c r="B71">
-        <v>-1.1209002894542949E-2</v>
+        <v>-0.01120900289454295</v>
       </c>
       <c r="C71">
-        <v>-5.8144002836360231E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05814400283636023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>43969</v>
       </c>
       <c r="B72">
-        <v>3.7457354007512898E-3</v>
+        <v>0.00374573540075129</v>
       </c>
       <c r="C72">
-        <v>-7.3315487834677562E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.007331548783467756</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>43976</v>
       </c>
       <c r="B73">
-        <v>-1.218252821842886E-2</v>
+        <v>-0.01218252821842886</v>
       </c>
       <c r="C73">
-        <v>2.281874413020879E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02281874413020879</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>43983</v>
       </c>
       <c r="B74">
-        <v>1.7060794450404131E-2</v>
+        <v>0.01706079445040413</v>
       </c>
       <c r="C74">
-        <v>4.3420163763429047E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04342016376342905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>43990</v>
       </c>
       <c r="B75">
-        <v>-6.8191501680658394E-3</v>
+        <v>-0.006819150168065839</v>
       </c>
       <c r="C75">
-        <v>-2.335202835886907E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02335202835886907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>43997</v>
       </c>
       <c r="B76">
-        <v>1.3100193696238889E-3</v>
+        <v>0.001310019369623889</v>
       </c>
       <c r="C76">
-        <v>-2.1722187428313888E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02172218742831389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>44004</v>
       </c>
       <c r="B77">
-        <v>1.7373990306561421E-2</v>
+        <v>0.01737399030656142</v>
       </c>
       <c r="C77">
-        <v>-8.899726002520203E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.008899726002520203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>44011</v>
       </c>
       <c r="B78">
-        <v>-7.6420622710816517E-3</v>
+        <v>-0.007642062271081652</v>
       </c>
       <c r="C78">
-        <v>-1.3136825532888859E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01313682553288886</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>44018</v>
       </c>
       <c r="B79">
-        <v>-2.207671778740768E-2</v>
+        <v>-0.02207671778740768</v>
       </c>
       <c r="C79">
-        <v>5.6186278027791532E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05618627802779153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>44025</v>
       </c>
       <c r="B80">
-        <v>3.6376533901226138E-2</v>
+        <v>0.03637653390122614</v>
       </c>
       <c r="C80">
-        <v>-0.19949134770571919</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1994913477057192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>44060</v>
       </c>
       <c r="B81">
-        <v>-3.6781953746468209E-3</v>
+        <v>-0.003678195374646821</v>
       </c>
       <c r="C81">
-        <v>0.61939729563721713</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.6193972956372171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>44067</v>
       </c>
       <c r="B82">
-        <v>-7.8116075429351386E-3</v>
+        <v>-0.007811607542935139</v>
       </c>
       <c r="C82">
-        <v>-1.1652659091060721E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01165265909106072</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>44074</v>
       </c>
       <c r="B83">
-        <v>7.1570763364988818E-3</v>
+        <v>0.007157076336498882</v>
       </c>
       <c r="C83">
-        <v>-6.8185569601068252E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.06818556960106825</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>44081</v>
       </c>
       <c r="B84">
-        <v>1.36329733305924E-3</v>
+        <v>0.00136329733305924</v>
       </c>
       <c r="C84">
-        <v>-6.207920469610051E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.06207920469610051</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>44088</v>
       </c>
       <c r="B85">
-        <v>1.4964074603202799E-2</v>
+        <v>0.0149640746032028</v>
       </c>
       <c r="C85">
-        <v>3.5955847778286643E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03595584777828664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>44095</v>
       </c>
       <c r="B86">
-        <v>8.1964586077197497E-3</v>
+        <v>0.00819645860771975</v>
       </c>
       <c r="C86">
-        <v>-2.9504324632344651E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02950432463234465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>44102</v>
       </c>
       <c r="B87">
-        <v>1.8708411978038671E-3</v>
+        <v>0.001870841197803867</v>
       </c>
       <c r="C87">
-        <v>-1.875704664558386E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01875704664558386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>44109</v>
       </c>
       <c r="B88">
-        <v>1.0906180614691041E-2</v>
+        <v>0.01090618061469104</v>
       </c>
       <c r="C88">
-        <v>9.3668564527807918E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09366856452780792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>44116</v>
       </c>
       <c r="B89">
-        <v>8.934262291002134E-3</v>
+        <v>0.008934262291002134</v>
       </c>
       <c r="C89">
-        <v>-2.3362307518857931E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02336230751885793</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>44123</v>
       </c>
       <c r="B90">
-        <v>6.3150210098552404E-3</v>
+        <v>0.00631502100985524</v>
       </c>
       <c r="C90">
-        <v>0.12563466845346619</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1256346684534662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>44130</v>
       </c>
       <c r="B91">
-        <v>1.3533429415796E-2</v>
+        <v>0.013533429415796</v>
       </c>
       <c r="C91">
-        <v>1.6844809756650481E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01684480975665048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>44137</v>
       </c>
       <c r="B92">
-        <v>5.9681747738360522E-3</v>
+        <v>0.005968174773836052</v>
       </c>
       <c r="C92">
-        <v>0.12879073833131871</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1287907383313187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>44144</v>
       </c>
       <c r="B93">
-        <v>-9.7977335578556118E-3</v>
+        <v>-0.009797733557855612</v>
       </c>
       <c r="C93">
-        <v>5.5915909204988123E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05591590920498812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>44151</v>
       </c>
       <c r="B94">
-        <v>4.0963876793530087E-3</v>
+        <v>0.004096387679353009</v>
       </c>
       <c r="C94">
         <v>0.1212231699759518</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>44158</v>
       </c>
       <c r="B95">
-        <v>-4.3760167974839038E-2</v>
+        <v>-0.04376016797483904</v>
       </c>
       <c r="C95">
-        <v>-5.4124936911561387E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05412493691156139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>44165</v>
       </c>
       <c r="B96">
-        <v>2.3955267515644921E-2</v>
+        <v>0.02395526751564492</v>
       </c>
       <c r="C96">
-        <v>9.243057377544539E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09243057377544539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>44172</v>
       </c>
       <c r="B97">
-        <v>-1.1278279346049301E-2</v>
+        <v>-0.0112782793460493</v>
       </c>
       <c r="C97">
-        <v>-3.4072376515922098E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.0340723765159221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>44179</v>
       </c>
       <c r="B98">
-        <v>-8.5762682729732202E-3</v>
+        <v>-0.00857626827297322</v>
       </c>
       <c r="C98">
-        <v>0.24375339132264351</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.2437533913226435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>44186</v>
       </c>
       <c r="B99">
-        <v>-9.7392789694107085E-3</v>
+        <v>-0.009739278969410708</v>
       </c>
       <c r="C99">
-        <v>3.7334705207883179E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.003733470520788318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>44193</v>
       </c>
       <c r="B100">
-        <v>8.8146780526747581E-3</v>
+        <v>0.008814678052674758</v>
       </c>
       <c r="C100">
-        <v>0.21909659732323589</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.2190965973232359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>44200</v>
       </c>
       <c r="B101">
-        <v>-2.0610124772386482E-2</v>
+        <v>-0.02061012477238648</v>
       </c>
       <c r="C101">
-        <v>0.41804128288241432</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.4180412828824143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>44207</v>
       </c>
       <c r="B102">
-        <v>1.317732172484247E-2</v>
+        <v>0.01317732172484247</v>
       </c>
       <c r="C102">
-        <v>-9.1412670869760015E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.09141267086976002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>44214</v>
       </c>
       <c r="B103">
-        <v>-1.035303692949638E-2</v>
+        <v>-0.01035303692949638</v>
       </c>
       <c r="C103">
-        <v>-0.13070100341507379</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1307010034150738</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>44221</v>
       </c>
       <c r="B104">
-        <v>6.2504266896498059E-3</v>
+        <v>0.006250426689649806</v>
       </c>
       <c r="C104">
-        <v>0.16293513791753411</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1629351379175341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>44228</v>
       </c>
       <c r="B105">
-        <v>-1.0964083263277189E-2</v>
+        <v>-0.01096408326327719</v>
       </c>
       <c r="C105">
-        <v>0.12354081586961781</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1235408158696178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>44235</v>
       </c>
       <c r="B106">
-        <v>6.1432559508946459E-2</v>
+        <v>0.06143255950894646</v>
       </c>
       <c r="C106">
-        <v>0.24761917783869891</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.2476191778386989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>44242</v>
       </c>
       <c r="B107">
-        <v>1.1811381365709851E-2</v>
+        <v>0.01181138136570985</v>
       </c>
       <c r="C107">
-        <v>0.16159262397611271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1615926239761127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>44249</v>
       </c>
       <c r="B108">
-        <v>3.770899260435159E-3</v>
+        <v>0.003770899260435159</v>
       </c>
       <c r="C108">
-        <v>-0.19719946895278989</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1971994689527899</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>44256</v>
       </c>
       <c r="B109">
-        <v>-2.3137137341563562E-3</v>
+        <v>-0.002313713734156356</v>
       </c>
       <c r="C109">
-        <v>7.0107650924036813E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07010765092403681</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>44263</v>
       </c>
       <c r="B110">
-        <v>-3.0714915386835882E-2</v>
+        <v>-0.03071491538683588</v>
       </c>
       <c r="C110">
-        <v>0.15766775319016649</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1576677531901665</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>44270</v>
       </c>
       <c r="B111">
-        <v>-3.2345634644230958E-2</v>
+        <v>-0.03234563464423096</v>
       </c>
       <c r="C111">
-        <v>3.5622207110729047E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03562220711072905</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>44277</v>
       </c>
       <c r="B112">
-        <v>1.1363065380538299E-3</v>
+        <v>0.00113630653805383</v>
       </c>
       <c r="C112">
-        <v>-6.169313922942754E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.06169313922942754</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>44284</v>
       </c>
       <c r="B113">
-        <v>-1.410457860864388E-3</v>
+        <v>-0.001410457860864388</v>
       </c>
       <c r="C113">
-        <v>9.7317841892786916E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09731784189278692</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>44291</v>
       </c>
       <c r="B114">
-        <v>-4.5049850475174492E-2</v>
+        <v>-0.04504985047517449</v>
       </c>
       <c r="C114">
-        <v>2.1497823224079001E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.021497823224079</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>44298</v>
       </c>
       <c r="B115">
-        <v>-8.2667495050390595E-3</v>
+        <v>-0.00826674950503906</v>
       </c>
       <c r="C115">
-        <v>0.13020609718608919</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1302060971860892</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>44305</v>
       </c>
       <c r="B116">
-        <v>5.2086394821519444E-3</v>
+        <v>0.005208639482151944</v>
       </c>
       <c r="C116">
-        <v>-0.16538873116592201</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.165388731165922</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>44312</v>
       </c>
       <c r="B117">
-        <v>-3.479666619320413E-2</v>
+        <v>-0.03479666619320413</v>
       </c>
       <c r="C117">
-        <v>0.14959578461851611</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1495957846185161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>44319</v>
       </c>
       <c r="B118">
-        <v>-3.2082652234143888E-2</v>
+        <v>-0.03208265223414389</v>
       </c>
       <c r="C118">
         <v>0.1014711800097456</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>44326</v>
       </c>
       <c r="B119">
-        <v>3.6948706829733793E-2</v>
+        <v>0.03694870682973379</v>
       </c>
       <c r="C119">
-        <v>-4.6309787348003277E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.04630978734800328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>44333</v>
       </c>
       <c r="B120">
-        <v>6.9114276072503632E-3</v>
+        <v>0.006911427607250363</v>
       </c>
       <c r="C120">
-        <v>-0.33583114535304959</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.3358311453530496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>44340</v>
       </c>
       <c r="B121">
-        <v>-7.2507893166466594E-2</v>
+        <v>-0.07250789316646659</v>
       </c>
       <c r="C121">
-        <v>-3.3212747883747951E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03321274788374795</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>44347</v>
       </c>
       <c r="B122">
-        <v>-1.2673428302219869E-2</v>
+        <v>-0.01267342830221987</v>
       </c>
       <c r="C122">
         <v>0.1002092256148983</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>44354</v>
       </c>
       <c r="B123">
-        <v>1.5867636773052439E-2</v>
+        <v>0.01586763677305244</v>
       </c>
       <c r="C123">
-        <v>-7.1437536315809402E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.0714375363158094</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>44361</v>
       </c>
       <c r="B124">
-        <v>4.8874311017095143E-3</v>
+        <v>0.004887431101709514</v>
       </c>
       <c r="C124">
-        <v>-3.9909338648953852E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03990933864895385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>44368</v>
       </c>
       <c r="B125">
-        <v>7.5488813864893964E-2</v>
+        <v>0.07548881386489396</v>
       </c>
       <c r="C125">
-        <v>-0.12710621470041111</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1271062147004111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>44375</v>
       </c>
       <c r="B126">
-        <v>-3.4350489521573699E-2</v>
+        <v>-0.0343504895215737</v>
       </c>
       <c r="C126">
-        <v>5.7693810619837249E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05769381061983725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>44382</v>
       </c>
       <c r="B127">
-        <v>-1.6037992746731091E-2</v>
+        <v>-0.01603799274673109</v>
       </c>
       <c r="C127">
-        <v>2.5526690839194011E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02552669083919401</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>44389</v>
       </c>
       <c r="B128">
-        <v>-1.134089529127491E-3</v>
+        <v>-0.001134089529127491</v>
       </c>
       <c r="C128">
-        <v>-8.9201128556279596E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.0892011285562796</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>44396</v>
       </c>
       <c r="B129">
-        <v>1.965180230751119E-2</v>
+        <v>0.01965180230751119</v>
       </c>
       <c r="C129">
-        <v>4.0317420882938437E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04031742088293844</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>44403</v>
       </c>
       <c r="B130">
-        <v>2.3337748303351759E-2</v>
+        <v>0.02333774830335176</v>
       </c>
       <c r="C130">
-        <v>0.20305857371176941</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.2030585737117694</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>44410</v>
       </c>
       <c r="B131">
-        <v>-2.335263493328376E-2</v>
+        <v>-0.02335263493328376</v>
       </c>
       <c r="C131">
-        <v>9.0183478053470489E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09018347805347049</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>44417</v>
       </c>
       <c r="B132">
-        <v>-4.3473700024584828E-3</v>
+        <v>-0.004347370002458483</v>
       </c>
       <c r="C132">
-        <v>0.13639821290850709</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1363982129085071</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>44424</v>
       </c>
       <c r="B133">
-        <v>-9.0754644041658832E-3</v>
+        <v>-0.009075464404165883</v>
       </c>
       <c r="C133">
-        <v>3.9591937253940612E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03959193725394061</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>44431</v>
       </c>
       <c r="B134">
-        <v>-1.2433411311659389E-2</v>
+        <v>-0.01243341131165939</v>
       </c>
       <c r="C134">
-        <v>1.495890098275332E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001495890098275332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>44438</v>
       </c>
       <c r="B135">
-        <v>3.9668329836816682E-3</v>
+        <v>0.003966832983681668</v>
       </c>
       <c r="C135">
-        <v>6.036349157714116E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06036349157714116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>44445</v>
       </c>
       <c r="B136">
-        <v>3.8582136310054832E-3</v>
+        <v>0.003858213631005483</v>
       </c>
       <c r="C136">
         <v>-0.1299810653654685</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>44452</v>
       </c>
       <c r="B137">
-        <v>5.293841630483213E-3</v>
+        <v>0.005293841630483213</v>
       </c>
       <c r="C137">
-        <v>5.0203686825530669E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05020368682553067</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>44459</v>
       </c>
       <c r="B138">
-        <v>3.3730219342869967E-2</v>
+        <v>0.03373021934286997</v>
       </c>
       <c r="C138">
         <v>-0.1024891753749331</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>44466</v>
       </c>
       <c r="B139">
-        <v>-7.6169696621131346E-3</v>
+        <v>-0.007616969662113135</v>
       </c>
       <c r="C139">
         <v>0.1098048712389494</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>44473</v>
       </c>
       <c r="B140">
-        <v>1.404513344553612E-2</v>
+        <v>0.01404513344553612</v>
       </c>
       <c r="C140">
-        <v>0.10159305684339801</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.101593056843398</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>44480</v>
       </c>
       <c r="B141">
-        <v>2.9571527769356631E-2</v>
+        <v>0.02957152776935663</v>
       </c>
       <c r="C141">
-        <v>0.10226526688649901</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.102265266886499</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>44487</v>
       </c>
       <c r="B142">
-        <v>-2.9028638901403992E-3</v>
+        <v>-0.002902863890140399</v>
       </c>
       <c r="C142">
-        <v>7.183954217535593E-4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0007183954217535593</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>44494</v>
       </c>
       <c r="B143">
-        <v>-4.0852726800909653E-3</v>
+        <v>-0.004085272680090965</v>
       </c>
       <c r="C143">
-        <v>5.3699007196458703E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0536990071964587</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>44501</v>
       </c>
       <c r="B144">
-        <v>-8.2044213342352228E-3</v>
+        <v>-0.008204421334235223</v>
       </c>
       <c r="C144">
-        <v>-2.2751799195823712E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.002275179919582371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>44508</v>
       </c>
       <c r="B145">
-        <v>9.2519402553118829E-3</v>
+        <v>0.009251940255311883</v>
       </c>
       <c r="C145">
-        <v>4.1714202805586797E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0417142028055868</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>44515</v>
       </c>
       <c r="B146">
-        <v>-2.0712174866583371E-2</v>
+        <v>-0.02071217486658337</v>
       </c>
       <c r="C146">
-        <v>-8.7427799969165387E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.08742779996916539</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>44522</v>
       </c>
       <c r="B147">
-        <v>-1.6195702153333109E-2</v>
+        <v>-0.01619570215333311</v>
       </c>
       <c r="C147">
-        <v>-5.4072295326168078E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05407229532616808</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>44529</v>
       </c>
       <c r="B148">
-        <v>-7.2744246760089119E-3</v>
+        <v>-0.007274424676008912</v>
       </c>
       <c r="C148">
-        <v>1.1269351627458679E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001126935162745868</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>44536</v>
       </c>
       <c r="B149">
-        <v>-1.382886200937629E-2</v>
+        <v>-0.01382886200937629</v>
       </c>
       <c r="C149">
-        <v>-9.4615908123746761E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.09461590812374676</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>44543</v>
       </c>
       <c r="B150">
-        <v>2.2612896853731541E-2</v>
+        <v>0.02261289685373154</v>
       </c>
       <c r="C150">
-        <v>-4.0156502112885017E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.04015650211288502</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>44550</v>
       </c>
       <c r="B151">
-        <v>1.055005575414686E-2</v>
+        <v>0.01055005575414686</v>
       </c>
       <c r="C151">
-        <v>9.2941630124210528E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09294163012421053</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>44557</v>
       </c>
       <c r="B152">
-        <v>-2.7796603145540111E-3</v>
+        <v>-0.002779660314554011</v>
       </c>
       <c r="C152">
-        <v>-0.10181511884572431</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1018151188457243</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>44564</v>
       </c>
       <c r="B153">
-        <v>-1.18576101976604E-2</v>
+        <v>-0.0118576101976604</v>
       </c>
       <c r="C153">
         <v>-0.108959649497398</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>44571</v>
       </c>
       <c r="B154">
-        <v>2.0310200724253168E-2</v>
+        <v>0.02031020072425317</v>
       </c>
       <c r="C154">
-        <v>-1.4000530232347601E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.00140005302323476</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>44578</v>
       </c>
       <c r="B155">
-        <v>1.942603887979975E-2</v>
+        <v>0.01942603887979975</v>
       </c>
       <c r="C155">
-        <v>-0.17518017768984381</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1751801776898438</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>44585</v>
       </c>
       <c r="B156">
-        <v>2.77473242165267E-2</v>
+        <v>0.0277473242165267</v>
       </c>
       <c r="C156">
-        <v>6.0317462807499833E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.006031746280749983</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>44592</v>
       </c>
       <c r="B157">
-        <v>-1.1317066170111261E-2</v>
+        <v>-0.01131706617011126</v>
       </c>
       <c r="C157">
-        <v>9.6875258926730545E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09687525892673055</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>44599</v>
       </c>
       <c r="B158">
-        <v>-1.1396117597072399E-2</v>
+        <v>-0.0113961175970724</v>
       </c>
       <c r="C158">
-        <v>3.0775534526914061E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03077553452691406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>44606</v>
       </c>
       <c r="B159">
-        <v>2.1560718309466299E-3</v>
+        <v>0.00215607183094663</v>
       </c>
       <c r="C159">
-        <v>-5.5571060623100577E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05557106062310058</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>44613</v>
       </c>
       <c r="B160">
-        <v>2.301808342925794E-2</v>
+        <v>0.02301808342925794</v>
       </c>
       <c r="C160">
-        <v>-3.1922262239818748E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03192226223981875</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>44620</v>
       </c>
       <c r="B161">
-        <v>2.8998156161396161E-2</v>
+        <v>0.02899815616139616</v>
       </c>
       <c r="C161">
-        <v>-3.2656815865831361E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.003265681586583136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>44627</v>
       </c>
       <c r="B162">
-        <v>-8.4311623107730539E-3</v>
+        <v>-0.008431162310773054</v>
       </c>
       <c r="C162">
-        <v>-1.730288090132814E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01730288090132814</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>44634</v>
       </c>
       <c r="B163">
-        <v>1.396142869375132E-2</v>
+        <v>0.01396142869375132</v>
       </c>
       <c r="C163">
-        <v>9.0587054808031864E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09058705480803186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>44641</v>
       </c>
       <c r="B164">
-        <v>-2.0410561180858371E-2</v>
+        <v>-0.02041056118085837</v>
       </c>
       <c r="C164">
-        <v>7.09528669452415E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0709528669452415</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>44648</v>
       </c>
       <c r="B165">
-        <v>5.0295612385398043E-3</v>
+        <v>0.005029561238539804</v>
       </c>
       <c r="C165">
-        <v>6.6233391366555372E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06623339136655537</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>44655</v>
       </c>
       <c r="B166">
-        <v>1.417431761024212E-2</v>
+        <v>0.01417431761024212</v>
       </c>
       <c r="C166">
-        <v>-7.5190530742932138E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.07519053074293214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>44662</v>
       </c>
       <c r="B167">
-        <v>1.1024189879299351E-2</v>
+        <v>0.01102418987929935</v>
       </c>
       <c r="C167">
-        <v>-5.8459811683051699E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.0584598116830517</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>44669</v>
       </c>
       <c r="B168">
-        <v>1.7952023545004909E-3</v>
+        <v>0.001795202354500491</v>
       </c>
       <c r="C168">
-        <v>-2.0285381230799811E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02028538123079981</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>44676</v>
       </c>
       <c r="B169">
-        <v>-8.9487906288376814E-3</v>
+        <v>-0.008948790628837681</v>
       </c>
       <c r="C169">
-        <v>-3.8493848797773962E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03849384879777396</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>44683</v>
       </c>
       <c r="B170">
-        <v>3.7857952066877408E-4</v>
+        <v>0.0003785795206687741</v>
       </c>
       <c r="C170">
-        <v>-6.0047899009529337E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.06004789900952934</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>44690</v>
       </c>
       <c r="B171">
-        <v>2.9173025585091598E-2</v>
+        <v>0.0291730255850916</v>
       </c>
       <c r="C171">
-        <v>-0.19670619183004051</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1967061918300405</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>44697</v>
       </c>
       <c r="B172">
-        <v>1.0449490191446561E-2</v>
+        <v>0.01044949019144656</v>
       </c>
       <c r="C172">
-        <v>-3.2908489153653193E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03290848915365319</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>44704</v>
       </c>
       <c r="B173">
-        <v>-5.7219739588855153E-3</v>
+        <v>-0.005721973958885515</v>
       </c>
       <c r="C173">
-        <v>-3.7746310787412751E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03774631078741275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>44711</v>
       </c>
       <c r="B174">
-        <v>-8.5827954671148458E-3</v>
+        <v>-0.008582795467114846</v>
       </c>
       <c r="C174">
-        <v>2.522239115934255E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02522239115934255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>44718</v>
       </c>
       <c r="B175">
-        <v>1.172182022642936E-2</v>
+        <v>0.01172182022642936</v>
       </c>
       <c r="C175">
-        <v>-2.1303801762586391E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02130380176258639</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>44725</v>
       </c>
       <c r="B176">
-        <v>-3.2785466109435973E-2</v>
+        <v>-0.03278546610943597</v>
       </c>
       <c r="C176">
-        <v>-0.30243871760548879</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.3024387176054888</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>44732</v>
       </c>
       <c r="B177">
-        <v>-2.9280824431764559E-2</v>
+        <v>-0.02928082443176456</v>
       </c>
       <c r="C177">
-        <v>5.5061024704463613E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05506102470446361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>44739</v>
       </c>
       <c r="B178">
-        <v>-2.327237552755558E-2</v>
+        <v>-0.02327237552755558</v>
       </c>
       <c r="C178">
-        <v>-8.9342245107151164E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.08934224510715116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>44746</v>
       </c>
       <c r="B179">
-        <v>6.5194773015681204E-3</v>
+        <v>0.00651947730156812</v>
       </c>
       <c r="C179">
-        <v>0.12184587569428421</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1218458756942842</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>44753</v>
       </c>
       <c r="B180">
-        <v>9.5325619821667977E-3</v>
+        <v>0.009532561982166798</v>
       </c>
       <c r="C180">
-        <v>-2.8753796177752759E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02875379617775276</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>44760</v>
       </c>
       <c r="B181">
-        <v>8.5167186781762716E-3</v>
+        <v>0.008516718678176272</v>
       </c>
       <c r="C181">
         <v>0.111823093520679</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>44767</v>
       </c>
       <c r="B182">
-        <v>6.9994227668452053E-3</v>
+        <v>0.006999422766845205</v>
       </c>
       <c r="C182">
-        <v>8.126128369544916E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08126128369544916</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>44774</v>
       </c>
       <c r="B183">
-        <v>-5.4366101362451286E-3</v>
+        <v>-0.005436610136245129</v>
       </c>
       <c r="C183">
-        <v>-3.2724406400874477E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03272440640087448</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>44781</v>
       </c>
       <c r="B184">
-        <v>4.5030239459300722E-4</v>
+        <v>0.0004503023945930072</v>
       </c>
       <c r="C184">
-        <v>7.7256032962586207E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07725603296258621</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>44788</v>
       </c>
       <c r="B185">
-        <v>7.3452241134571907E-3</v>
+        <v>0.007345224113457191</v>
       </c>
       <c r="C185">
-        <v>-0.12101796953756989</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1210179695375699</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>44795</v>
       </c>
       <c r="B186">
-        <v>-8.5131314362689309E-3</v>
+        <v>-0.008513131436268931</v>
       </c>
       <c r="C186">
-        <v>-3.9520132195573598E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.0395201321955736</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>44802</v>
       </c>
       <c r="B187">
-        <v>-1.463450296572918E-2</v>
+        <v>-0.01463450296572918</v>
       </c>
       <c r="C187">
-        <v>-2.4659233929339771E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02465923392933977</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>44809</v>
       </c>
       <c r="B188">
-        <v>-1.8134346184184261E-2</v>
+        <v>-0.01813434618418426</v>
       </c>
       <c r="C188">
-        <v>7.9169708395377736E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07916970839537774</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>44816</v>
       </c>
       <c r="B189">
-        <v>1.7458689472664012E-2</v>
+        <v>0.01745868947266401</v>
       </c>
       <c r="C189">
-        <v>-9.9893030389688997E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.099893030389689</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>44823</v>
       </c>
       <c r="B190">
-        <v>-5.5044892321709296E-3</v>
+        <v>-0.00550448923217093</v>
       </c>
       <c r="C190">
-        <v>-5.4010513353122243E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05401051335312224</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>44830</v>
       </c>
       <c r="B191">
-        <v>3.701732838210878E-3</v>
+        <v>0.003701732838210878</v>
       </c>
       <c r="C191">
-        <v>2.0427324044775211E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02042732404477521</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>44837</v>
       </c>
       <c r="B192">
-        <v>3.8804516705253341E-3</v>
+        <v>0.003880451670525334</v>
       </c>
       <c r="C192">
-        <v>4.5163974872937107E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.004516397487293711</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>44844</v>
       </c>
       <c r="B193">
-        <v>1.3576143379816779E-2</v>
+        <v>0.01357614337981678</v>
       </c>
       <c r="C193">
-        <v>-2.6527719902701859E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02652771990270186</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>44851</v>
       </c>
       <c r="B194">
-        <v>-5.6361938233511176E-3</v>
+        <v>-0.005636193823351118</v>
       </c>
       <c r="C194">
-        <v>3.6340066517197571E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.003634006651719757</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>44858</v>
       </c>
       <c r="B195">
-        <v>-1.2183001588854049E-3</v>
+        <v>-0.001218300158885405</v>
       </c>
       <c r="C195">
         <v>0.1161965483656575</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>44865</v>
       </c>
       <c r="B196">
-        <v>-1.268482283245439E-2</v>
+        <v>-0.01268482283245439</v>
       </c>
       <c r="C196">
-        <v>3.831800269415564E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03831800269415564</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>44872</v>
       </c>
       <c r="B197">
-        <v>-1.550230021126686E-2</v>
+        <v>-0.01550230021126686</v>
       </c>
       <c r="C197">
         <v>-0.214427718813715</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>44879</v>
       </c>
       <c r="B198">
-        <v>-2.6607537827552361E-3</v>
+        <v>-0.002660753782755236</v>
       </c>
       <c r="C198">
-        <v>-1.9963284461940511E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01996328446194051</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>44886</v>
       </c>
       <c r="B199">
-        <v>-1.3373702658754909E-2</v>
+        <v>-0.01337370265875491</v>
       </c>
       <c r="C199">
-        <v>-1.3363968753756781E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.001336396875375678</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>44893</v>
       </c>
       <c r="B200">
-        <v>-2.329618682073546E-3</v>
+        <v>-0.002329618682073546</v>
       </c>
       <c r="C200">
-        <v>4.2493498506531058E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04249349850653106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>44900</v>
       </c>
       <c r="B201">
-        <v>-9.2446109087717873E-3</v>
+        <v>-0.009244610908771787</v>
       </c>
       <c r="C201">
-        <v>-3.7395880294236461E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.003739588029423646</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>44907</v>
       </c>
       <c r="B202">
-        <v>6.3626876942384589E-3</v>
+        <v>0.006362687694238459</v>
       </c>
       <c r="C202">
-        <v>-5.2552341538210527E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.05255234153821053</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>44914</v>
       </c>
       <c r="B203">
-        <v>2.2612151874604441E-2</v>
+        <v>0.02261215187460444</v>
       </c>
       <c r="C203">
-        <v>1.8952022582725769E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01895202258272577</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>44921</v>
       </c>
       <c r="B204">
-        <v>-1.575058818826539E-3</v>
+        <v>-0.001575058818826539</v>
       </c>
       <c r="C204">
-        <v>-1.65449605359177E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.0165449605359177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>44928</v>
       </c>
       <c r="B205">
-        <v>-8.7094513790218139E-3</v>
+        <v>-0.008709451379021814</v>
       </c>
       <c r="C205">
-        <v>3.3473925159569262E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03347392515956926</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>44935</v>
       </c>
       <c r="B206">
-        <v>-2.0791077352110679E-2</v>
+        <v>-0.02079107735211068</v>
       </c>
       <c r="C206">
-        <v>0.15910728309165889</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1591072830916589</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>44942</v>
       </c>
       <c r="B207">
-        <v>1.092892858341077E-2</v>
+        <v>0.01092892858341077</v>
       </c>
       <c r="C207">
         <v>0.1242578702655175</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>44949</v>
       </c>
       <c r="B208">
-        <v>-1.805086327122785E-2</v>
+        <v>-0.01805086327122785</v>
       </c>
       <c r="C208">
-        <v>1.5802024744773879E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01580202474477388</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>44956</v>
       </c>
       <c r="B209">
-        <v>7.491348980981475E-3</v>
+        <v>0.007491348980981475</v>
       </c>
       <c r="C209">
-        <v>2.336183884961307E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02336183884961307</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>44963</v>
       </c>
       <c r="B210">
-        <v>9.8878408452164981E-4</v>
+        <v>0.0009887840845216498</v>
       </c>
       <c r="C210">
-        <v>-8.1292434923475376E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.08129243492347538</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>44970</v>
       </c>
       <c r="B211">
-        <v>1.1909718612254201E-3</v>
+        <v>0.00119097186122542</v>
       </c>
       <c r="C211">
         <v>0.1378515158873512</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>44977</v>
       </c>
       <c r="B212">
-        <v>-8.8743171320615662E-3</v>
+        <v>-0.008874317132061566</v>
       </c>
       <c r="C212">
-        <v>-6.0354694569050182E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.06035469456905018</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>44984</v>
       </c>
       <c r="B213">
-        <v>-4.0859015656777332E-3</v>
+        <v>-0.004085901565677733</v>
       </c>
       <c r="C213">
-        <v>-3.5354705256761543E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03535470525676154</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>44991</v>
       </c>
       <c r="B214">
-        <v>-6.6652273098390946E-3</v>
+        <v>-0.006665227309839095</v>
       </c>
       <c r="C214">
-        <v>-9.3942248834957609E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.09394224883495761</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>44998</v>
       </c>
       <c r="B215">
-        <v>2.4804071633146942E-2</v>
+        <v>0.02480407163314694</v>
       </c>
       <c r="C215">
-        <v>0.28464587538709368</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.2846458753870937</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>45005</v>
       </c>
       <c r="B216">
-        <v>2.1669288315533011E-2</v>
+        <v>0.02166928831553301</v>
       </c>
       <c r="C216">
-        <v>1.847435941032094E-3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001847435941032094</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="2">
         <v>45012</v>
       </c>
       <c r="B217">
-        <v>-8.7596392856607169E-5</v>
+        <v>-8.759639285660717e-05</v>
       </c>
       <c r="C217">
-        <v>5.1013602217292009E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05101360221729201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="2">
         <v>45019</v>
       </c>
       <c r="B218">
-        <v>-2.5117025186364848E-2</v>
+        <v>-0.02511702518636485</v>
       </c>
       <c r="C218">
-        <v>-3.0204051583454521E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.003020405158345452</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="2">
         <v>45026</v>
       </c>
       <c r="B219">
-        <v>9.8338080528715833E-3</v>
+        <v>0.009833808052871583</v>
       </c>
       <c r="C219">
-        <v>9.8475622513625405E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0984756225136254</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="2">
         <v>45033</v>
       </c>
       <c r="B220">
-        <v>-1.289541639488166E-2</v>
+        <v>-0.01289541639488166</v>
       </c>
       <c r="C220">
         <v>-0.1123170541185573</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="2">
         <v>45040</v>
       </c>
       <c r="B221">
-        <v>-4.0989084847464314E-3</v>
+        <v>-0.004098908484746431</v>
       </c>
       <c r="C221">
-        <v>5.9569235131243133E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05956923513124313</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="2">
         <v>45047</v>
       </c>
       <c r="B222">
-        <v>-8.5583323373278827E-3</v>
+        <v>-0.008558332337327883</v>
       </c>
       <c r="C222">
-        <v>1.775694441995879E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01775694441995879</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="2">
         <v>45054</v>
       </c>
       <c r="B223">
-        <v>2.1848855972547852E-2</v>
+        <v>0.02184885597254785</v>
       </c>
       <c r="C223">
         <v>-0.1036428359015039</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="2">
         <v>45061</v>
       </c>
       <c r="B224">
-        <v>-2.3582685643682832E-3</v>
+        <v>-0.002358268564368283</v>
       </c>
       <c r="C224">
-        <v>1.641124015245676E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01641124015245676</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>45068</v>
       </c>
       <c r="B225">
-        <v>-2.8312037130712028E-3</v>
+        <v>-0.002831203713071203</v>
       </c>
       <c r="C225">
-        <v>1.587843348000106E-3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001587843348000106</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="2">
         <v>45075</v>
       </c>
       <c r="B226">
-        <v>-3.5707577517449072E-4</v>
+        <v>-0.0003570757751744907</v>
       </c>
       <c r="C226">
-        <v>2.5575568288101369E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02557556828810137</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>45082</v>
       </c>
       <c r="B227">
-        <v>1.2761913627678411E-2</v>
+        <v>0.01276191362767841</v>
       </c>
       <c r="C227">
-        <v>-3.6279678823525563E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03627967882352556</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="2">
         <v>45089</v>
       </c>
       <c r="B228">
-        <v>-7.6423873424713764E-3</v>
+        <v>-0.007642387342471376</v>
       </c>
       <c r="C228">
-        <v>-2.507363790127104E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02507363790127104</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="2">
         <v>45096</v>
       </c>
       <c r="B229">
-        <v>4.2697254241742012E-3</v>
+        <v>0.004269725424174201</v>
       </c>
       <c r="C229">
         <v>0.1518652606308846</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" s="2">
         <v>45103</v>
       </c>
       <c r="B230">
-        <v>-2.038256801552975E-3</v>
+        <v>-0.002038256801552975</v>
       </c>
       <c r="C230">
-        <v>-3.2232951439513662E-3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.003223295143951366</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="2">
         <v>45110</v>
       </c>
       <c r="B231">
-        <v>-5.706778873802703E-3</v>
+        <v>-0.005706778873802703</v>
       </c>
       <c r="C231">
-        <v>-1.142402417358912E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01142402417358912</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="2">
         <v>45117</v>
       </c>
       <c r="B232">
-        <v>3.3774360143877728E-3</v>
+        <v>0.003377436014387773</v>
       </c>
       <c r="C232">
-        <v>5.6150570216779716E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.005615057021677972</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="2">
         <v>45124</v>
       </c>
       <c r="B233">
-        <v>-1.272019523582444E-2</v>
+        <v>-0.01272019523582444</v>
       </c>
       <c r="C233">
-        <v>-8.6026362734031858E-3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.008602636273403186</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="2">
         <v>45131</v>
       </c>
       <c r="B234">
-        <v>-1.063756295068329E-2</v>
+        <v>-0.01063756295068329</v>
       </c>
       <c r="C234">
-        <v>-1.4930811532923079E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01493081153292308</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="2">
         <v>45138</v>
       </c>
       <c r="B235">
-        <v>2.8941078361331518E-3</v>
+        <v>0.002894107836133152</v>
       </c>
       <c r="C235">
-        <v>-1.6736531579641278E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01673653157964128</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="2">
         <v>45145</v>
       </c>
       <c r="B236">
-        <v>1.0781726397371751E-4</v>
+        <v>0.0001078172639737175</v>
       </c>
       <c r="C236">
-        <v>1.059515915522047E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01059515915522047</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="2">
         <v>45152</v>
       </c>
       <c r="B237">
-        <v>-5.0774181486351287E-3</v>
+        <v>-0.005077418148635129</v>
       </c>
       <c r="C237">
-        <v>-0.11064187053683749</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.1106418705368375</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="2">
         <v>45159</v>
       </c>
       <c r="B238">
-        <v>7.226238292931092E-3</v>
+        <v>0.007226238292931092</v>
       </c>
       <c r="C238">
-        <v>-3.1471818269869218E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.003147181826986922</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="2">
         <v>45166</v>
       </c>
       <c r="B239">
-        <v>1.6434551029211541E-3</v>
+        <v>0.001643455102921154</v>
       </c>
       <c r="C239">
-        <v>-1.024084274247861E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01024084274247861</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="2">
         <v>45173</v>
       </c>
       <c r="B240">
-        <v>-6.3864764551483611E-3</v>
+        <v>-0.006386476455148361</v>
       </c>
       <c r="C240">
-        <v>5.7406030985847067E-3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.005740603098584707</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="2">
         <v>45180</v>
       </c>
       <c r="B241">
-        <v>1.9944035464640039E-3</v>
+        <v>0.001994403546464004</v>
       </c>
       <c r="C241">
-        <v>1.2741866256484441E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01274186625648444</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="2">
         <v>45187</v>
       </c>
       <c r="B242">
-        <v>-7.4160646517591172E-3</v>
+        <v>-0.007416064651759117</v>
       </c>
       <c r="C242">
-        <v>-1.1138449583751871E-3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.001113844958375187</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="2">
         <v>45194</v>
       </c>
       <c r="B243">
-        <v>-6.2890142531208384E-3</v>
+        <v>-0.006289014253120838</v>
       </c>
       <c r="C243">
-        <v>2.2712130628106841E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02271213062810684</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="2">
         <v>45201</v>
       </c>
       <c r="B244">
-        <v>3.680138486912626E-3</v>
+        <v>0.003680138486912626</v>
       </c>
       <c r="C244">
-        <v>2.4811043949668491E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02481104394966849</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="2">
         <v>45208</v>
       </c>
       <c r="B245">
-        <v>1.39736096793489E-2</v>
+        <v>0.0139736096793489</v>
       </c>
       <c r="C245">
-        <v>-4.6513357849017438E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.04651335784901744</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="2">
         <v>45215</v>
       </c>
       <c r="B246">
-        <v>1.8877857108606209E-2</v>
+        <v>0.01887785710860621</v>
       </c>
       <c r="C246">
-        <v>8.3961603476510049E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08396160347651005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="2">
         <v>45222</v>
       </c>
       <c r="B247">
-        <v>3.235833457719238E-2</v>
+        <v>0.03235833457719238</v>
       </c>
       <c r="C247">
         <v>0.1292751054647627</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" s="2">
         <v>45229</v>
       </c>
       <c r="B248">
-        <v>-8.6036097368306259E-3</v>
+        <v>-0.008603609736830626</v>
       </c>
       <c r="C248">
-        <v>2.8346789822512038E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02834678982251204</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="2">
         <v>45236</v>
       </c>
       <c r="B249">
-        <v>-3.2710795178801287E-2</v>
+        <v>-0.03271079517880129</v>
       </c>
       <c r="C249">
-        <v>8.2334350022385427E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08233435002238543</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="2">
         <v>45243</v>
       </c>
       <c r="B250">
-        <v>1.625798230626355E-2</v>
+        <v>0.01625798230626355</v>
       </c>
       <c r="C250">
-        <v>-2.585198610892725E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.02585198610892725</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="2">
         <v>45250</v>
       </c>
       <c r="B251">
-        <v>8.0137045041034811E-3</v>
+        <v>0.008013704504103481</v>
       </c>
       <c r="C251">
-        <v>4.691322060143599E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04691322060143599</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="2">
         <v>45257</v>
       </c>
       <c r="B252">
-        <v>8.5412725678600532E-3</v>
+        <v>0.008541272567860053</v>
       </c>
       <c r="C252">
-        <v>1.533641941080166E-2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01533641941080166</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="2">
         <v>45264</v>
       </c>
       <c r="B253">
-        <v>-7.757636095306799E-4</v>
+        <v>-0.0007757636095306799</v>
       </c>
       <c r="C253">
-        <v>0.14481793583596381</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1448179358359638</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="2">
         <v>45271</v>
       </c>
       <c r="B254">
-        <v>-4.5927052364670316E-3</v>
+        <v>-0.004592705236467032</v>
       </c>
       <c r="C254">
-        <v>-4.8143427896078839E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.04814342789607884</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="2">
         <v>45278</v>
       </c>
       <c r="B255">
-        <v>1.6946382980084301E-2</v>
+        <v>0.0169463829800843</v>
       </c>
       <c r="C255">
-        <v>3.5613456015891609E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03561345601589161</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="2">
         <v>45285</v>
       </c>
       <c r="B256">
-        <v>-1.557387897394823E-2</v>
+        <v>-0.01557387897394823</v>
       </c>
       <c r="C256">
-        <v>-3.0591793519658021E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03059179351965802</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="2">
         <v>45292</v>
       </c>
       <c r="B257">
-        <v>-2.9728631919593912E-3</v>
+        <v>-0.002972863191959391</v>
       </c>
       <c r="C257">
-        <v>2.089818218301831E-2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02089818218301831</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="2">
         <v>45299</v>
       </c>
       <c r="B258">
-        <v>-2.92845846114154E-3</v>
+        <v>-0.00292845846114154</v>
       </c>
       <c r="C258">
-        <v>2.2587054836641141E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02258705483664114</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="2">
         <v>45306</v>
       </c>
       <c r="B259">
-        <v>-1.7793469583020491E-3</v>
+        <v>-0.001779346958302049</v>
       </c>
       <c r="C259">
-        <v>-3.5089210588566289E-2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.03508921058856629</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="2">
         <v>45313</v>
       </c>
       <c r="B260">
-        <v>1.535311030988152E-5</v>
+        <v>1.535311030988152e-05</v>
       </c>
       <c r="C260">
-        <v>-1.5942649573194578E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.01594264957319458</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="2">
         <v>45320</v>
       </c>
       <c r="B261">
-        <v>8.1825403306425709E-4</v>
+        <v>0.0008182540330642571</v>
       </c>
       <c r="C261">
-        <v>2.219249583575067E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02219249583575067</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="2">
         <v>45327</v>
       </c>
       <c r="B262">
-        <v>-4.0514915350883104E-3</v>
+        <v>-0.00405149153508831</v>
       </c>
       <c r="C262">
-        <v>9.5926069809941783E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09592606980994178</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="2">
         <v>45334</v>
       </c>
       <c r="B263">
-        <v>-2.4412525334303191E-3</v>
+        <v>-0.002441252533430319</v>
       </c>
       <c r="C263">
-        <v>9.865194714623815E-2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09865194714623815</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="2">
         <v>45341</v>
       </c>
       <c r="B264">
-        <v>-2.713024277203132E-2</v>
+        <v>-0.02713024277203132</v>
       </c>
       <c r="C264">
-        <v>-3.2734513027210532E-5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.273451302721053e-05</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="2">
         <v>45348</v>
       </c>
       <c r="B265">
-        <v>5.5807395571882568E-3</v>
+        <v>0.005580739557188257</v>
       </c>
       <c r="C265">
-        <v>0.21100659633475921</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.2110065963347592</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="2">
         <v>45355</v>
       </c>
       <c r="B266">
-        <v>3.9841092894397523E-2</v>
+        <v>0.03984109289439752</v>
       </c>
       <c r="C266">
         <v>0.1111221800416156</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" s="2">
         <v>45362</v>
       </c>
       <c r="B267">
-        <v>-1.1056626213270099E-2</v>
+        <v>-0.0110566262132701</v>
       </c>
       <c r="C267">
-        <v>2.271012846703813E-2</v>
+        <v>0.02271012846703813</v>
       </c>
     </row>
   </sheetData>
